--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Hp-Itgam.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Hp-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Hp</t>
   </si>
   <si>
     <t>Itgam</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>12.9573744588039</v>
+        <v>1.014807333333333</v>
       </c>
       <c r="H2">
-        <v>12.9573744588039</v>
+        <v>3.044422</v>
       </c>
       <c r="I2">
-        <v>0.821931188603382</v>
+        <v>0.02166037622173753</v>
       </c>
       <c r="J2">
-        <v>0.821931188603382</v>
+        <v>0.02166037622173753</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>146.433606223121</v>
+        <v>0.142723</v>
       </c>
       <c r="N2">
-        <v>146.433606223121</v>
+        <v>0.428169</v>
       </c>
       <c r="O2">
-        <v>0.5086671177303524</v>
+        <v>0.000470790275435748</v>
       </c>
       <c r="P2">
-        <v>0.5086671177303524</v>
+        <v>0.0004707902754357479</v>
       </c>
       <c r="Q2">
-        <v>1897.395069186016</v>
+        <v>0.1448363470353334</v>
       </c>
       <c r="R2">
-        <v>1897.395069186016</v>
+        <v>1.303527123318</v>
       </c>
       <c r="S2">
-        <v>0.418089368679565</v>
+        <v>1.019749448747374E-05</v>
       </c>
       <c r="T2">
-        <v>0.418089368679565</v>
+        <v>1.019749448747373E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>12.9573744588039</v>
+        <v>1.014807333333333</v>
       </c>
       <c r="H3">
-        <v>12.9573744588039</v>
+        <v>3.044422</v>
       </c>
       <c r="I3">
-        <v>0.821931188603382</v>
+        <v>0.02166037622173753</v>
       </c>
       <c r="J3">
-        <v>0.821931188603382</v>
+        <v>0.02166037622173753</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>141.443477077448</v>
+        <v>148.0881626666667</v>
       </c>
       <c r="N3">
-        <v>141.443477077448</v>
+        <v>444.264488</v>
       </c>
       <c r="O3">
-        <v>0.4913328822696476</v>
+        <v>0.4884879584272602</v>
       </c>
       <c r="P3">
-        <v>0.4913328822696476</v>
+        <v>0.4884879584272601</v>
       </c>
       <c r="Q3">
-        <v>1832.73609724774</v>
+        <v>150.2809534539929</v>
       </c>
       <c r="R3">
-        <v>1832.73609724774</v>
+        <v>1352.528581085936</v>
       </c>
       <c r="S3">
-        <v>0.403841819923817</v>
+        <v>0.01058083295932294</v>
       </c>
       <c r="T3">
-        <v>0.403841819923817</v>
+        <v>0.01058083295932293</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.80717449427933</v>
+        <v>1.014807333333333</v>
       </c>
       <c r="H4">
-        <v>2.80717449427933</v>
+        <v>3.044422</v>
       </c>
       <c r="I4">
-        <v>0.1780688113966181</v>
+        <v>0.02166037622173753</v>
       </c>
       <c r="J4">
-        <v>0.1780688113966181</v>
+        <v>0.02166037622173753</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>146.433606223121</v>
+        <v>154.9253336666667</v>
       </c>
       <c r="N4">
-        <v>146.433606223121</v>
+        <v>464.776001</v>
       </c>
       <c r="O4">
-        <v>0.5086671177303524</v>
+        <v>0.5110412512973043</v>
       </c>
       <c r="P4">
-        <v>0.5086671177303524</v>
+        <v>0.5110412512973042</v>
       </c>
       <c r="Q4">
-        <v>411.0646844948882</v>
+        <v>157.2193647240469</v>
       </c>
       <c r="R4">
-        <v>411.0646844948882</v>
+        <v>1414.974282516422</v>
       </c>
       <c r="S4">
-        <v>0.09057774905078744</v>
+        <v>0.01106934576792712</v>
       </c>
       <c r="T4">
-        <v>0.09057774905078744</v>
+        <v>0.01106934576792712</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +711,743 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>15.02703733333333</v>
+      </c>
+      <c r="H5">
+        <v>45.081112</v>
+      </c>
+      <c r="I5">
+        <v>0.3207419491825662</v>
+      </c>
+      <c r="J5">
+        <v>0.3207419491825662</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.142723</v>
+      </c>
+      <c r="N5">
+        <v>0.428169</v>
+      </c>
+      <c r="O5">
+        <v>0.000470790275435748</v>
+      </c>
+      <c r="P5">
+        <v>0.0004707902754357479</v>
+      </c>
+      <c r="Q5">
+        <v>2.144703849325334</v>
+      </c>
+      <c r="R5">
+        <v>19.302334643928</v>
+      </c>
+      <c r="S5">
+        <v>0.000151002190599459</v>
+      </c>
+      <c r="T5">
+        <v>0.000151002190599459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>15.02703733333333</v>
+      </c>
+      <c r="H6">
+        <v>45.081112</v>
+      </c>
+      <c r="I6">
+        <v>0.3207419491825662</v>
+      </c>
+      <c r="J6">
+        <v>0.3207419491825662</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>148.0881626666667</v>
+      </c>
+      <c r="N6">
+        <v>444.264488</v>
+      </c>
+      <c r="O6">
+        <v>0.4884879584272602</v>
+      </c>
+      <c r="P6">
+        <v>0.4884879584272601</v>
+      </c>
+      <c r="Q6">
+        <v>2225.32634901674</v>
+      </c>
+      <c r="R6">
+        <v>20027.93714115066</v>
+      </c>
+      <c r="S6">
+        <v>0.1566785799381718</v>
+      </c>
+      <c r="T6">
+        <v>0.1566785799381717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>15.02703733333333</v>
+      </c>
+      <c r="H7">
+        <v>45.081112</v>
+      </c>
+      <c r="I7">
+        <v>0.3207419491825662</v>
+      </c>
+      <c r="J7">
+        <v>0.3207419491825662</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>154.9253336666667</v>
+      </c>
+      <c r="N7">
+        <v>464.776001</v>
+      </c>
+      <c r="O7">
+        <v>0.5110412512973043</v>
+      </c>
+      <c r="P7">
+        <v>0.5110412512973042</v>
+      </c>
+      <c r="Q7">
+        <v>2328.068772888123</v>
+      </c>
+      <c r="R7">
+        <v>20952.61895599311</v>
+      </c>
+      <c r="S7">
+        <v>0.163912367053795</v>
+      </c>
+      <c r="T7">
+        <v>0.1639123670537949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.246574333333333</v>
+      </c>
+      <c r="H8">
+        <v>9.739723</v>
+      </c>
+      <c r="I8">
+        <v>0.06929593350577223</v>
+      </c>
+      <c r="J8">
+        <v>0.06929593350577222</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.142723</v>
+      </c>
+      <c r="N8">
+        <v>0.428169</v>
+      </c>
+      <c r="O8">
+        <v>0.000470790275435748</v>
+      </c>
+      <c r="P8">
+        <v>0.0004707902754357479</v>
+      </c>
+      <c r="Q8">
+        <v>0.4633608285763334</v>
+      </c>
+      <c r="R8">
+        <v>4.170247457187</v>
+      </c>
+      <c r="S8">
+        <v>3.262385162175979E-05</v>
+      </c>
+      <c r="T8">
+        <v>3.262385162175978E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.246574333333333</v>
+      </c>
+      <c r="H9">
+        <v>9.739723</v>
+      </c>
+      <c r="I9">
+        <v>0.06929593350577223</v>
+      </c>
+      <c r="J9">
+        <v>0.06929593350577222</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>148.0881626666667</v>
+      </c>
+      <c r="N9">
+        <v>444.264488</v>
+      </c>
+      <c r="O9">
+        <v>0.4884879584272602</v>
+      </c>
+      <c r="P9">
+        <v>0.4884879584272601</v>
+      </c>
+      <c r="Q9">
+        <v>480.7792279840916</v>
+      </c>
+      <c r="R9">
+        <v>4327.013051856824</v>
+      </c>
+      <c r="S9">
+        <v>0.03385022908554585</v>
+      </c>
+      <c r="T9">
+        <v>0.03385022908554584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.246574333333333</v>
+      </c>
+      <c r="H10">
+        <v>9.739723</v>
+      </c>
+      <c r="I10">
+        <v>0.06929593350577223</v>
+      </c>
+      <c r="J10">
+        <v>0.06929593350577222</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>154.9253336666667</v>
+      </c>
+      <c r="N10">
+        <v>464.776001</v>
+      </c>
+      <c r="O10">
+        <v>0.5110412512973043</v>
+      </c>
+      <c r="P10">
+        <v>0.5110412512973042</v>
+      </c>
+      <c r="Q10">
+        <v>502.9766118653025</v>
+      </c>
+      <c r="R10">
+        <v>4526.789506787723</v>
+      </c>
+      <c r="S10">
+        <v>0.03541308056860464</v>
+      </c>
+      <c r="T10">
+        <v>0.03541308056860462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>27.476122</v>
+      </c>
+      <c r="H11">
+        <v>82.428366</v>
+      </c>
+      <c r="I11">
+        <v>0.5864592421494387</v>
+      </c>
+      <c r="J11">
+        <v>0.5864592421494386</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.142723</v>
+      </c>
+      <c r="N11">
+        <v>0.428169</v>
+      </c>
+      <c r="O11">
+        <v>0.000470790275435748</v>
+      </c>
+      <c r="P11">
+        <v>0.0004707902754357479</v>
+      </c>
+      <c r="Q11">
+        <v>3.921474560206001</v>
+      </c>
+      <c r="R11">
+        <v>35.293271041854</v>
+      </c>
+      <c r="S11">
+        <v>0.0002760993081433743</v>
+      </c>
+      <c r="T11">
+        <v>0.0002760993081433742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>27.476122</v>
+      </c>
+      <c r="H12">
+        <v>82.428366</v>
+      </c>
+      <c r="I12">
+        <v>0.5864592421494387</v>
+      </c>
+      <c r="J12">
+        <v>0.5864592421494386</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>148.0881626666667</v>
+      </c>
+      <c r="N12">
+        <v>444.264488</v>
+      </c>
+      <c r="O12">
+        <v>0.4884879584272602</v>
+      </c>
+      <c r="P12">
+        <v>0.4884879584272601</v>
+      </c>
+      <c r="Q12">
+        <v>4068.888424185179</v>
+      </c>
+      <c r="R12">
+        <v>36619.99581766661</v>
+      </c>
+      <c r="S12">
+        <v>0.2864782778983775</v>
+      </c>
+      <c r="T12">
+        <v>0.2864782778983774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>27.476122</v>
+      </c>
+      <c r="H13">
+        <v>82.428366</v>
+      </c>
+      <c r="I13">
+        <v>0.5864592421494387</v>
+      </c>
+      <c r="J13">
+        <v>0.5864592421494386</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>154.9253336666667</v>
+      </c>
+      <c r="N13">
+        <v>464.776001</v>
+      </c>
+      <c r="O13">
+        <v>0.5110412512973043</v>
+      </c>
+      <c r="P13">
+        <v>0.5110412512973042</v>
+      </c>
+      <c r="Q13">
+        <v>4256.747368716041</v>
+      </c>
+      <c r="R13">
+        <v>38310.72631844436</v>
+      </c>
+      <c r="S13">
+        <v>0.2997048649429179</v>
+      </c>
+      <c r="T13">
+        <v>0.2997048649429178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.80717449427933</v>
-      </c>
-      <c r="H5">
-        <v>2.80717449427933</v>
-      </c>
-      <c r="I5">
-        <v>0.1780688113966181</v>
-      </c>
-      <c r="J5">
-        <v>0.1780688113966181</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>141.443477077448</v>
-      </c>
-      <c r="N5">
-        <v>141.443477077448</v>
-      </c>
-      <c r="O5">
-        <v>0.4913328822696476</v>
-      </c>
-      <c r="P5">
-        <v>0.4913328822696476</v>
-      </c>
-      <c r="Q5">
-        <v>397.0565212339951</v>
-      </c>
-      <c r="R5">
-        <v>397.0565212339951</v>
-      </c>
-      <c r="S5">
-        <v>0.08749106234583062</v>
-      </c>
-      <c r="T5">
-        <v>0.08749106234583062</v>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.08632266666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.258968</v>
+      </c>
+      <c r="I14">
+        <v>0.001842498940485558</v>
+      </c>
+      <c r="J14">
+        <v>0.001842498940485558</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.142723</v>
+      </c>
+      <c r="N14">
+        <v>0.428169</v>
+      </c>
+      <c r="O14">
+        <v>0.000470790275435748</v>
+      </c>
+      <c r="P14">
+        <v>0.0004707902754357479</v>
+      </c>
+      <c r="Q14">
+        <v>0.01232022995466667</v>
+      </c>
+      <c r="R14">
+        <v>0.110882069592</v>
+      </c>
+      <c r="S14">
+        <v>8.674305836812699E-07</v>
+      </c>
+      <c r="T14">
+        <v>8.674305836812695E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.08632266666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.258968</v>
+      </c>
+      <c r="I15">
+        <v>0.001842498940485558</v>
+      </c>
+      <c r="J15">
+        <v>0.001842498940485558</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>148.0881626666667</v>
+      </c>
+      <c r="N15">
+        <v>444.264488</v>
+      </c>
+      <c r="O15">
+        <v>0.4884879584272602</v>
+      </c>
+      <c r="P15">
+        <v>0.4884879584272601</v>
+      </c>
+      <c r="Q15">
+        <v>12.78336510315378</v>
+      </c>
+      <c r="R15">
+        <v>115.050285928384</v>
+      </c>
+      <c r="S15">
+        <v>0.0009000385458421803</v>
+      </c>
+      <c r="T15">
+        <v>0.00090003854584218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.08632266666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.258968</v>
+      </c>
+      <c r="I16">
+        <v>0.001842498940485558</v>
+      </c>
+      <c r="J16">
+        <v>0.001842498940485558</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>154.9253336666667</v>
+      </c>
+      <c r="N16">
+        <v>464.776001</v>
+      </c>
+      <c r="O16">
+        <v>0.5110412512973043</v>
+      </c>
+      <c r="P16">
+        <v>0.5110412512973042</v>
+      </c>
+      <c r="Q16">
+        <v>13.37356793632978</v>
+      </c>
+      <c r="R16">
+        <v>120.362111426968</v>
+      </c>
+      <c r="S16">
+        <v>0.0009415929640596971</v>
+      </c>
+      <c r="T16">
+        <v>0.0009415929640596966</v>
       </c>
     </row>
   </sheetData>
